--- a/medicine/Sexualité et sexologie/Sexage/Sexage.xlsx
+++ b/medicine/Sexualité et sexologie/Sexage/Sexage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sexage est le fait de déterminer le sexe d’un animal.
 Il peut être jugé nécessaire de choisir ou modifier le sexe d'animaux d'élevage, en vue d'une reproduction assistée, d'une sélection génétique ou pour des élevages plus rentables. 
 Certaines espèces comme les oiseaux ou les reptiles ne disposent pas d'organes sexuels externes, la tâche est difficile lorsque les spécimens ne disposent pas de dimorphismes sexuels marqués ou lorsque la détermination du sexe doit avoir lieu avant le développement des caractères sexuels secondaires.
-Des hormones sexuelles peuvent être utilisées pour transformer des populations d'alevins en poissons adultes uniquement mâles ou femelles, selon les préférences des pisciculteurs (souvent le mâle ou la femelle grossit plus vite, est moins agressif ou produit du caviar, etc) [1].
-Ainsi les poussins d'un jour sont tués ou élevés en fonction des races pour obtenir des poulets de chair (mâle) ou des poules pondeuses (femelle). Dans ce cas, il s'agit de technique oculaire très difficile à acquérir[2]. 
-Dans le cas des espèces qui ne possèdent pas de dimorphisme sexuel marqué comme les tortues marines, certains perroquets et perruches, l'homme a recours à la génétique en identifiant les chromosomes responsables de la détermination sexuelle. On parle alors de sexage ADN[3].
+Des hormones sexuelles peuvent être utilisées pour transformer des populations d'alevins en poissons adultes uniquement mâles ou femelles, selon les préférences des pisciculteurs (souvent le mâle ou la femelle grossit plus vite, est moins agressif ou produit du caviar, etc) .
+Ainsi les poussins d'un jour sont tués ou élevés en fonction des races pour obtenir des poulets de chair (mâle) ou des poules pondeuses (femelle). Dans ce cas, il s'agit de technique oculaire très difficile à acquérir. 
+Dans le cas des espèces qui ne possèdent pas de dimorphisme sexuel marqué comme les tortues marines, certains perroquets et perruches, l'homme a recours à la génétique en identifiant les chromosomes responsables de la détermination sexuelle. On parle alors de sexage ADN.
 </t>
         </is>
       </c>
